--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -758,9 +758,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -769,28 +766,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -817,23 +823,17 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -887,147 +887,147 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,7 +1045,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1092,7 +1092,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1139,7 +1139,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1184,7 +1184,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1233,7 +1233,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1280,7 +1280,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1327,7 +1327,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1372,7 +1372,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1421,7 +1421,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1468,7 +1468,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1515,7 +1515,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1560,7 +1560,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1609,7 +1609,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1656,7 +1656,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1703,7 +1703,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1748,7 +1748,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1797,7 +1797,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1844,7 +1844,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1891,7 +1891,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1936,7 +1936,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1985,7 +1985,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2032,7 +2032,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2079,7 +2079,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2124,7 +2124,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2173,7 +2173,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2220,7 +2220,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2267,7 +2267,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2312,7 +2312,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2361,7 +2361,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2408,7 +2408,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2455,7 +2455,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2500,7 +2500,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2549,7 +2549,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2596,7 +2596,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2643,7 +2643,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2688,7 +2688,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3022,22 +3022,22 @@
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3079,32 +3079,32 @@
       <c r="C2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="67">
-        <v>0</v>
-      </c>
-      <c r="E2" s="67">
-        <v>0</v>
-      </c>
-      <c r="F2" s="67">
-        <v>0</v>
-      </c>
-      <c r="G2" s="67">
+      <c r="D2" s="46">
+        <v>0</v>
+      </c>
+      <c r="E2" s="46">
+        <v>0</v>
+      </c>
+      <c r="F2" s="46">
+        <v>0</v>
+      </c>
+      <c r="G2" s="46">
         <f>PARTICIPACION!F2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="46">
         <f>ASISTENCIA!Q6</f>
-        <v>8</v>
-      </c>
-      <c r="I2" s="67">
-        <v>0</v>
-      </c>
-      <c r="J2" s="68">
+        <v>9</v>
+      </c>
+      <c r="I2" s="46">
+        <v>0</v>
+      </c>
+      <c r="J2" s="47">
         <f>ROUNDDOWN( D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3114,32 +3114,32 @@
       <c r="C3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="67">
-        <v>0</v>
-      </c>
-      <c r="E3" s="67">
-        <v>0</v>
-      </c>
-      <c r="F3" s="67">
-        <v>0</v>
-      </c>
-      <c r="G3" s="67">
+      <c r="D3" s="46">
+        <v>0</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0</v>
+      </c>
+      <c r="F3" s="46">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46">
         <f>PARTICIPACION!F3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="46">
         <f>ASISTENCIA!Q7</f>
         <v>8</v>
       </c>
-      <c r="I3" s="67">
-        <v>0</v>
-      </c>
-      <c r="J3" s="68">
+      <c r="I3" s="46">
+        <v>0</v>
+      </c>
+      <c r="J3" s="47">
         <f t="shared" ref="J3:J22" si="0">ROUNDDOWN( D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3149,32 +3149,32 @@
       <c r="C4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="67">
-        <v>0</v>
-      </c>
-      <c r="E4" s="67">
-        <v>0</v>
-      </c>
-      <c r="F4" s="67">
-        <v>0</v>
-      </c>
-      <c r="G4" s="67">
+      <c r="D4" s="46">
+        <v>0</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0</v>
+      </c>
+      <c r="G4" s="46">
         <f>PARTICIPACION!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="46">
         <f>ASISTENCIA!Q8</f>
-        <v>8</v>
-      </c>
-      <c r="I4" s="67">
-        <v>0</v>
-      </c>
-      <c r="J4" s="68">
+        <v>9</v>
+      </c>
+      <c r="I4" s="46">
+        <v>0</v>
+      </c>
+      <c r="J4" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3184,32 +3184,32 @@
       <c r="C5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="67">
-        <v>0</v>
-      </c>
-      <c r="E5" s="67">
-        <v>0</v>
-      </c>
-      <c r="F5" s="67">
-        <v>0</v>
-      </c>
-      <c r="G5" s="67">
+      <c r="D5" s="46">
+        <v>0</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0</v>
+      </c>
+      <c r="G5" s="46">
         <f>PARTICIPACION!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="67">
+      <c r="H5" s="46">
         <f>ASISTENCIA!Q9</f>
-        <v>8</v>
-      </c>
-      <c r="I5" s="67">
-        <v>0</v>
-      </c>
-      <c r="J5" s="68">
+        <v>9</v>
+      </c>
+      <c r="I5" s="46">
+        <v>0</v>
+      </c>
+      <c r="J5" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3219,35 +3219,35 @@
       <c r="C6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="67">
-        <v>0</v>
-      </c>
-      <c r="E6" s="67">
-        <v>0</v>
-      </c>
-      <c r="F6" s="67">
-        <v>0</v>
-      </c>
-      <c r="G6" s="67">
+      <c r="D6" s="46">
+        <v>0</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0</v>
+      </c>
+      <c r="G6" s="46">
         <f>PARTICIPACION!F6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="46">
         <f>ASISTENCIA!Q10</f>
         <v>8</v>
       </c>
-      <c r="I6" s="67">
-        <v>0</v>
-      </c>
-      <c r="J6" s="68">
+      <c r="I6" s="46">
+        <v>0</v>
+      </c>
+      <c r="J6" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -3255,33 +3255,33 @@
       <c r="C7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="67">
-        <v>0</v>
-      </c>
-      <c r="E7" s="67">
-        <v>0</v>
-      </c>
-      <c r="F7" s="67">
-        <v>0</v>
-      </c>
-      <c r="G7" s="67">
+      <c r="D7" s="46">
+        <v>0</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0</v>
+      </c>
+      <c r="F7" s="46">
+        <v>0</v>
+      </c>
+      <c r="G7" s="46">
         <f>PARTICIPACION!F7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="46">
         <f>ASISTENCIA!Q11</f>
-        <v>8</v>
-      </c>
-      <c r="I7" s="67">
-        <v>0</v>
-      </c>
-      <c r="J7" s="68">
+        <v>9</v>
+      </c>
+      <c r="I7" s="46">
+        <v>0</v>
+      </c>
+      <c r="J7" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L7" s="42"/>
-    </row>
-    <row r="8" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="48"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>7</v>
@@ -3289,33 +3289,33 @@
       <c r="C8" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="67">
-        <v>0</v>
-      </c>
-      <c r="E8" s="67">
-        <v>0</v>
-      </c>
-      <c r="F8" s="67">
-        <v>0</v>
-      </c>
-      <c r="G8" s="67">
+      <c r="D8" s="46">
+        <v>0</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0</v>
+      </c>
+      <c r="G8" s="46">
         <f>PARTICIPACION!F8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="46">
         <f>ASISTENCIA!Q12</f>
-        <v>8</v>
-      </c>
-      <c r="I8" s="67">
-        <v>0</v>
-      </c>
-      <c r="J8" s="68">
+        <v>9</v>
+      </c>
+      <c r="I8" s="46">
+        <v>0</v>
+      </c>
+      <c r="J8" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L8" s="42"/>
-    </row>
-    <row r="9" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="48"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>8</v>
@@ -3323,33 +3323,33 @@
       <c r="C9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="67">
-        <v>0</v>
-      </c>
-      <c r="E9" s="67">
-        <v>0</v>
-      </c>
-      <c r="F9" s="67">
-        <v>0</v>
-      </c>
-      <c r="G9" s="67">
+      <c r="D9" s="46">
+        <v>0</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0</v>
+      </c>
+      <c r="G9" s="46">
         <f>PARTICIPACION!F9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="46">
         <f>ASISTENCIA!Q13</f>
         <v>8</v>
       </c>
-      <c r="I9" s="67">
-        <v>0</v>
-      </c>
-      <c r="J9" s="68">
+      <c r="I9" s="46">
+        <v>0</v>
+      </c>
+      <c r="J9" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L9" s="42"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6">
         <v>9</v>
@@ -3357,33 +3357,33 @@
       <c r="C10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="67">
-        <v>0</v>
-      </c>
-      <c r="E10" s="67">
-        <v>0</v>
-      </c>
-      <c r="F10" s="67">
-        <v>0</v>
-      </c>
-      <c r="G10" s="67">
+      <c r="D10" s="46">
+        <v>0</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0</v>
+      </c>
+      <c r="G10" s="46">
         <f>PARTICIPACION!F10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="46">
         <f>ASISTENCIA!Q14</f>
         <v>8</v>
       </c>
-      <c r="I10" s="67">
-        <v>0</v>
-      </c>
-      <c r="J10" s="68">
+      <c r="I10" s="46">
+        <v>0</v>
+      </c>
+      <c r="J10" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L10" s="42"/>
-    </row>
-    <row r="11" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="48"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6">
         <v>10</v>
@@ -3391,157 +3391,157 @@
       <c r="C11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="67">
-        <v>0</v>
-      </c>
-      <c r="E11" s="67">
-        <v>0</v>
-      </c>
-      <c r="F11" s="67">
-        <v>0</v>
-      </c>
-      <c r="G11" s="67">
+      <c r="D11" s="46">
+        <v>0</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0</v>
+      </c>
+      <c r="F11" s="46">
+        <v>0</v>
+      </c>
+      <c r="G11" s="46">
         <f>PARTICIPACION!F11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="46">
         <f>ASISTENCIA!Q15</f>
-        <v>8</v>
-      </c>
-      <c r="I11" s="67">
-        <v>0</v>
-      </c>
-      <c r="J11" s="68">
+        <v>9</v>
+      </c>
+      <c r="I11" s="46">
+        <v>0</v>
+      </c>
+      <c r="J11" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="48"/>
+    </row>
+    <row r="12" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="67">
-        <v>0</v>
-      </c>
-      <c r="E12" s="67">
-        <v>0</v>
-      </c>
-      <c r="F12" s="67">
-        <v>0</v>
-      </c>
-      <c r="G12" s="67">
+      <c r="D12" s="46">
+        <v>0</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0</v>
+      </c>
+      <c r="G12" s="46">
         <f>PARTICIPACION!F12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="46">
         <f>ASISTENCIA!Q16</f>
         <v>7</v>
       </c>
-      <c r="I12" s="67">
-        <v>0</v>
-      </c>
-      <c r="J12" s="68">
+      <c r="I12" s="46">
+        <v>0</v>
+      </c>
+      <c r="J12" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="67">
-        <v>0</v>
-      </c>
-      <c r="E13" s="67">
-        <v>0</v>
-      </c>
-      <c r="F13" s="67">
-        <v>0</v>
-      </c>
-      <c r="G13" s="67">
+      <c r="D13" s="46">
+        <v>0</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0</v>
+      </c>
+      <c r="G13" s="46">
         <f>PARTICIPACION!F13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="46">
         <f>ASISTENCIA!Q17</f>
         <v>7</v>
       </c>
-      <c r="I13" s="67">
-        <v>0</v>
-      </c>
-      <c r="J13" s="68">
+      <c r="I13" s="46">
+        <v>0</v>
+      </c>
+      <c r="J13" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="67">
-        <v>0</v>
-      </c>
-      <c r="E14" s="67">
-        <v>0</v>
-      </c>
-      <c r="F14" s="67">
-        <v>0</v>
-      </c>
-      <c r="G14" s="67">
+      <c r="D14" s="46">
+        <v>0</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0</v>
+      </c>
+      <c r="G14" s="46">
         <f>PARTICIPACION!F14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="46">
         <f>ASISTENCIA!Q18</f>
         <v>7</v>
       </c>
-      <c r="I14" s="67">
-        <v>0</v>
-      </c>
-      <c r="J14" s="68">
+      <c r="I14" s="46">
+        <v>0</v>
+      </c>
+      <c r="J14" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="67">
-        <v>0</v>
-      </c>
-      <c r="E15" s="67">
-        <v>0</v>
-      </c>
-      <c r="F15" s="67">
-        <v>0</v>
-      </c>
-      <c r="G15" s="67">
+      <c r="D15" s="46">
+        <v>0</v>
+      </c>
+      <c r="E15" s="46">
+        <v>0</v>
+      </c>
+      <c r="F15" s="46">
+        <v>0</v>
+      </c>
+      <c r="G15" s="46">
         <f>PARTICIPACION!F15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="46">
         <f>ASISTENCIA!Q19</f>
         <v>7</v>
       </c>
-      <c r="I15" s="67">
-        <v>0</v>
-      </c>
-      <c r="J15" s="68">
+      <c r="I15" s="46">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -3549,32 +3549,32 @@
         <v>15</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="67">
-        <v>0</v>
-      </c>
-      <c r="E16" s="67">
-        <v>0</v>
-      </c>
-      <c r="F16" s="67">
-        <v>0</v>
-      </c>
-      <c r="G16" s="67">
+      <c r="D16" s="46">
+        <v>0</v>
+      </c>
+      <c r="E16" s="46">
+        <v>0</v>
+      </c>
+      <c r="F16" s="46">
+        <v>0</v>
+      </c>
+      <c r="G16" s="46">
         <f>PARTICIPACION!F16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="46">
         <f>ASISTENCIA!Q20</f>
         <v>7</v>
       </c>
-      <c r="I16" s="67">
-        <v>0</v>
-      </c>
-      <c r="J16" s="68">
+      <c r="I16" s="46">
+        <v>0</v>
+      </c>
+      <c r="J16" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -3582,32 +3582,32 @@
         <v>16</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="67">
-        <v>0</v>
-      </c>
-      <c r="E17" s="67">
-        <v>0</v>
-      </c>
-      <c r="F17" s="67">
-        <v>0</v>
-      </c>
-      <c r="G17" s="67">
+      <c r="D17" s="46">
+        <v>0</v>
+      </c>
+      <c r="E17" s="46">
+        <v>0</v>
+      </c>
+      <c r="F17" s="46">
+        <v>0</v>
+      </c>
+      <c r="G17" s="46">
         <f>PARTICIPACION!F17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="46">
         <f>ASISTENCIA!Q21</f>
         <v>7</v>
       </c>
-      <c r="I17" s="67">
-        <v>0</v>
-      </c>
-      <c r="J17" s="68">
+      <c r="I17" s="46">
+        <v>0</v>
+      </c>
+      <c r="J17" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -3615,94 +3615,94 @@
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="67">
-        <v>0</v>
-      </c>
-      <c r="E18" s="67">
-        <v>0</v>
-      </c>
-      <c r="F18" s="67">
-        <v>0</v>
-      </c>
-      <c r="G18" s="67">
+      <c r="D18" s="46">
+        <v>0</v>
+      </c>
+      <c r="E18" s="46">
+        <v>0</v>
+      </c>
+      <c r="F18" s="46">
+        <v>0</v>
+      </c>
+      <c r="G18" s="46">
         <f>PARTICIPACION!F18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="46">
         <f>ASISTENCIA!Q22</f>
         <v>7</v>
       </c>
-      <c r="I18" s="67">
-        <v>0</v>
-      </c>
-      <c r="J18" s="68">
+      <c r="I18" s="46">
+        <v>0</v>
+      </c>
+      <c r="J18" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="67">
-        <v>0</v>
-      </c>
-      <c r="E19" s="67">
-        <v>0</v>
-      </c>
-      <c r="F19" s="67">
-        <v>0</v>
-      </c>
-      <c r="G19" s="67">
+      <c r="D19" s="46">
+        <v>0</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0</v>
+      </c>
+      <c r="G19" s="46">
         <f>PARTICIPACION!F19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="46">
         <f>ASISTENCIA!Q23</f>
         <v>7</v>
       </c>
-      <c r="I19" s="67">
-        <v>0</v>
-      </c>
-      <c r="J19" s="68">
+      <c r="I19" s="46">
+        <v>0</v>
+      </c>
+      <c r="J19" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="67">
-        <v>0</v>
-      </c>
-      <c r="E20" s="67">
-        <v>0</v>
-      </c>
-      <c r="F20" s="67">
-        <v>0</v>
-      </c>
-      <c r="G20" s="67">
+      <c r="D20" s="46">
+        <v>0</v>
+      </c>
+      <c r="E20" s="46">
+        <v>0</v>
+      </c>
+      <c r="F20" s="46">
+        <v>0</v>
+      </c>
+      <c r="G20" s="46">
         <f>PARTICIPACION!F20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="46">
         <f>ASISTENCIA!Q24</f>
         <v>7</v>
       </c>
-      <c r="I20" s="67">
-        <v>0</v>
-      </c>
-      <c r="J20" s="68">
+      <c r="I20" s="46">
+        <v>0</v>
+      </c>
+      <c r="J20" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -3710,32 +3710,32 @@
         <v>20</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="67">
-        <v>0</v>
-      </c>
-      <c r="E21" s="67">
-        <v>0</v>
-      </c>
-      <c r="F21" s="67">
-        <v>0</v>
-      </c>
-      <c r="G21" s="67">
+      <c r="D21" s="46">
+        <v>0</v>
+      </c>
+      <c r="E21" s="46">
+        <v>0</v>
+      </c>
+      <c r="F21" s="46">
+        <v>0</v>
+      </c>
+      <c r="G21" s="46">
         <f>PARTICIPACION!F21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="46">
         <f>ASISTENCIA!Q25</f>
         <v>7</v>
       </c>
-      <c r="I21" s="67">
-        <v>0</v>
-      </c>
-      <c r="J21" s="68">
+      <c r="I21" s="46">
+        <v>0</v>
+      </c>
+      <c r="J21" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -3743,32 +3743,32 @@
         <v>21</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="67">
-        <v>0</v>
-      </c>
-      <c r="E22" s="67">
-        <v>0</v>
-      </c>
-      <c r="F22" s="67">
-        <v>0</v>
-      </c>
-      <c r="G22" s="67">
+      <c r="D22" s="46">
+        <v>0</v>
+      </c>
+      <c r="E22" s="46">
+        <v>0</v>
+      </c>
+      <c r="F22" s="46">
+        <v>0</v>
+      </c>
+      <c r="G22" s="46">
         <f>PARTICIPACION!F22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="46">
         <f>ASISTENCIA!Q26</f>
         <v>7</v>
       </c>
-      <c r="I22" s="67">
-        <v>0</v>
-      </c>
-      <c r="J22" s="68">
+      <c r="I22" s="46">
+        <v>0</v>
+      </c>
+      <c r="J22" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="13">
         <f t="shared" ref="D23:J23" si="1">AVERAGE(D2:D22)</f>
         <v>0</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>7.4761904761904763</v>
+        <v>7.7619047619047619</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" si="1"/>
@@ -3818,18 +3818,19 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="16" width="9.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -3838,12 +3839,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>36</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
@@ -3930,58 +3931,58 @@
         <v>42992</v>
       </c>
       <c r="E5" s="39">
-        <f>C5+7</f>
+        <f t="shared" ref="E5:P5" si="0">C5+7</f>
         <v>42997</v>
       </c>
       <c r="F5" s="39">
-        <f>D5+7</f>
+        <f t="shared" si="0"/>
         <v>42999</v>
       </c>
       <c r="G5" s="39">
-        <f>E5+7</f>
+        <f t="shared" si="0"/>
         <v>43004</v>
       </c>
       <c r="H5" s="39">
-        <f>F5+7</f>
+        <f t="shared" si="0"/>
         <v>43006</v>
       </c>
       <c r="I5" s="39">
-        <f>G5+7</f>
+        <f t="shared" si="0"/>
         <v>43011</v>
       </c>
       <c r="J5" s="39">
-        <f>H5+7</f>
+        <f t="shared" si="0"/>
         <v>43013</v>
       </c>
       <c r="K5" s="39">
-        <f>I5+7</f>
+        <f t="shared" si="0"/>
         <v>43018</v>
       </c>
       <c r="L5" s="39">
-        <f>J5+7</f>
+        <f t="shared" si="0"/>
         <v>43020</v>
       </c>
       <c r="M5" s="39">
-        <f>K5+7</f>
+        <f t="shared" si="0"/>
         <v>43025</v>
       </c>
       <c r="N5" s="39">
-        <f>L5+7</f>
+        <f t="shared" si="0"/>
         <v>43027</v>
       </c>
       <c r="O5" s="39">
-        <f>M5+7</f>
+        <f t="shared" si="0"/>
         <v>43032</v>
       </c>
       <c r="P5" s="39">
-        <f>N5+7</f>
+        <f t="shared" si="0"/>
         <v>43034</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -3991,7 +3992,9 @@
       <c r="C6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4006,10 +4009,10 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:O6,"") - COUNTIF(D6:O6,"F") - COUNTIF(D6:O6,"T")/2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -4033,11 +4036,11 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="2">
-        <f t="shared" ref="Q7:Q26" si="0">ROUNDUP( 20  - COUNTIF(C7:O7,"") - COUNTIF(D7:O7,"F") - COUNTIF(D7:O7,"T")/2,0)</f>
+        <f t="shared" ref="Q7:Q26" si="1">ROUNDUP( 20  - COUNTIF(C7:O7,"") - COUNTIF(D7:O7,"F") - COUNTIF(D7:O7,"T")/2,0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -4047,7 +4050,9 @@
       <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -4061,11 +4066,11 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -4075,7 +4080,9 @@
       <c r="C9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -4089,11 +4096,11 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -4117,11 +4124,11 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -4131,7 +4138,9 @@
       <c r="C11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -4145,11 +4154,11 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -4159,7 +4168,9 @@
       <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -4173,11 +4184,11 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -4201,11 +4212,11 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -4229,11 +4240,11 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -4243,7 +4254,9 @@
       <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4257,11 +4270,11 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -4281,11 +4294,11 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -4305,11 +4318,11 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -4329,11 +4342,11 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -4353,11 +4366,11 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -4377,11 +4390,11 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -4401,11 +4414,11 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -4425,11 +4438,11 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>18</v>
       </c>
@@ -4449,11 +4462,11 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>19</v>
       </c>
@@ -4473,11 +4486,11 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>20</v>
       </c>
@@ -4497,11 +4510,11 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>21</v>
       </c>
@@ -4521,194 +4534,194 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="34">
-        <f t="shared" ref="C27:P27" si="1">COUNTIF(C6:C26,"=P")</f>
+        <f t="shared" ref="C27:P27" si="2">COUNTIF(C6:C26,"=P")</f>
         <v>10</v>
       </c>
       <c r="D27" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="E27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P27" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="34">
-        <f t="shared" ref="C28:P28" si="2">COUNTIF(C6:C26,"=T")</f>
+        <f t="shared" ref="C28:P28" si="3">COUNTIF(C6:C26,"=T")</f>
         <v>0</v>
       </c>
       <c r="D28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P28" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="34">
-        <f t="shared" ref="C29:P29" si="3">COUNTIF(C6:C26,"=F") + COUNTIF(C6:C26,"=")</f>
+        <f t="shared" ref="C29:P29" si="4">COUNTIF(C6:C26,"=F") + COUNTIF(C6:C26,"=")</f>
         <v>11</v>
       </c>
       <c r="D29" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="E29" s="35">
-        <f t="shared" si="3"/>
+      <c r="F29" s="35">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="F29" s="35">
-        <f t="shared" si="3"/>
+      <c r="G29" s="35">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="G29" s="35">
-        <f t="shared" si="3"/>
+      <c r="H29" s="35">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="H29" s="35">
-        <f t="shared" si="3"/>
+      <c r="I29" s="35">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="I29" s="35">
-        <f t="shared" si="3"/>
+      <c r="J29" s="35">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="J29" s="35">
-        <f t="shared" si="3"/>
+      <c r="K29" s="35">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="K29" s="35">
-        <f t="shared" si="3"/>
+      <c r="L29" s="35">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="L29" s="35">
-        <f t="shared" si="3"/>
+      <c r="M29" s="35">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="M29" s="35">
-        <f t="shared" si="3"/>
+      <c r="N29" s="35">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="N29" s="35">
-        <f t="shared" si="3"/>
+      <c r="O29" s="35">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="O29" s="35">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
       <c r="P29" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="33" t="s">
         <v>65</v>
       </c>
@@ -4737,7 +4750,7 @@
         <v>37</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" ref="Q30" si="4">ROUNDUP( 20  - COUNTIF(C30:O30,"") - COUNTIF(D30:O30,"F") - COUNTIF(D30:O30,"T")/2,0)</f>
+        <f t="shared" ref="Q30" si="5">ROUNDUP( 20  - COUNTIF(C30:O30,"") - COUNTIF(D30:O30,"F") - COUNTIF(D30:O30,"T")/2,0)</f>
         <v>14</v>
       </c>
     </row>
@@ -4762,16 +4775,16 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
@@ -4794,7 +4807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -4818,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -4842,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -4866,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -4890,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -4914,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -4938,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -4962,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -4986,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -5010,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -5034,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -5056,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -5078,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -5100,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -5122,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -5144,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -5166,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -5188,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -5210,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -5232,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -5254,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -5290,17 +5303,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
@@ -5329,7 +5342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -5355,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -5381,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -5407,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -5433,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -5459,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -5485,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -5511,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -5537,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -5563,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -5589,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -5615,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -5633,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -5651,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -5669,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -5687,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -5705,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -5723,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -5741,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -5759,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -5777,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -5809,15 +5822,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
@@ -5831,7 +5844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5840,7 +5853,7 @@
       </c>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5849,7 +5862,7 @@
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5858,7 +5871,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5867,7 +5880,7 @@
       </c>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5876,7 +5889,7 @@
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5899,14 +5912,14 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.6640625" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
@@ -5932,7 +5945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -5961,7 +5974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -5974,7 +5987,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -5987,7 +6000,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -6000,7 +6013,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -6013,7 +6026,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -6026,7 +6039,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -6039,7 +6052,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -6052,7 +6065,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -6065,7 +6078,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -6078,7 +6091,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -6091,7 +6104,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -6104,7 +6117,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -6132,310 +6145,350 @@
       <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67">
         <v>1</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="68">
         <v>100027940</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="53" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="54"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57">
         <v>2</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="59">
         <v>100033542</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="61" t="s">
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="62"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
         <v>3</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="55">
         <v>100033986</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="54"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="55">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="52"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="57">
         <v>4</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="59">
         <v>100033497</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="61" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="62"/>
-    </row>
-    <row r="10" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="64"/>
+    </row>
+    <row r="10" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
         <v>5</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="55">
         <v>100038056</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="54"/>
-    </row>
-    <row r="12" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="52"/>
+    </row>
+    <row r="12" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
         <v>6</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="59">
         <v>100031506</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="61" t="s">
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="62"/>
-    </row>
-    <row r="14" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="64"/>
+    </row>
+    <row r="14" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53">
         <v>7</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="55">
         <v>100011564</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="54"/>
-    </row>
-    <row r="16" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="52"/>
+    </row>
+    <row r="16" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
         <v>8</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="59">
         <v>100008136</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="61" t="s">
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="62"/>
-    </row>
-    <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="64"/>
+    </row>
+    <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53">
         <v>9</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="55">
         <v>100038061</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66" t="s">
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="48"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="54"/>
-    </row>
-    <row r="20" spans="1:8" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="43">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="54"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="52"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42">
         <v>10</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="43">
         <v>100027997</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="A16:A17"/>
@@ -6452,54 +6505,14 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6507,19 +6520,94 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId3" name="Control 36">
+        <control shapeId="1025" r:id="rId3" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId3" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId5" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId7" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId8" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -6527,12 +6615,762 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId3" name="Control 36"/>
+        <control shapeId="1028" r:id="rId8" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId5" name="Control 35">
+        <control shapeId="1029" r:id="rId10" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId10" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId11" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId11" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId12" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId12" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId13" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId13" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId14" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId14" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId15" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId15" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId16" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId16" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId17" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId17" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId18" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId18" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId19" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId19" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId20" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId20" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId21" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId21" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId22" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId22" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId23" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId23" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId24" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId24" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId25" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId25" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId26" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId26" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId27" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId27" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId28" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId28" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId29" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId29" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId30" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId30" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId31" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId31" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId32" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId32" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId33" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId33" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId34" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId34" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId35" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId35" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId36" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId36" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId37" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId37" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId38" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId38" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId39" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId39" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId40" name="Control 35">
           <controlPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
@@ -6545,81 +7383,31 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId5" name="Control 35"/>
+        <control shapeId="1059" r:id="rId40" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId7" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId7" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId8" name="Control 33">
+        <control shapeId="1060" r:id="rId41" name="Control 36">
           <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId8" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId10" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -6627,782 +7415,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId10" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId11" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId11" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId12" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId12" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId13" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId13" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId14" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId14" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId15" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId15" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId16" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId16" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId17" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId17" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId18" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId18" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId19" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId19" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId20" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId20" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId21" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId21" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId22" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId22" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId23" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId23" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId24" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId24" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId25" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId25" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId26" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId26" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId27" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId27" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId28" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId28" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId29" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId29" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId30" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId30" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId31" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId31" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId32" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId32" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId33" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId33" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId34" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId34" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId35" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId35" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId36" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId36" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId37" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId37" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId38" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId38" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId39" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId39" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId40" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId40" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId41" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId41" name="Control 1"/>
+        <control shapeId="1060" r:id="rId41" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7417,57 +7430,57 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>88</v>
       </c>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -775,28 +775,16 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -823,16 +811,28 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,11 +899,11 @@
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -915,11 +915,11 @@
 </file>
 
 <file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -935,11 +935,11 @@
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -951,11 +951,11 @@
 </file>
 
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -967,11 +967,11 @@
 </file>
 
 <file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -987,11 +987,11 @@
 </file>
 
 <file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,15 +1003,15 @@
 </file>
 
 <file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1023,11 +1023,11 @@
 </file>
 
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="H6" s="46">
         <f>ASISTENCIA!Q10</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" s="46">
         <v>0</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>7.7619047619047619</v>
+        <v>7.8095238095238093</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" si="1"/>
@@ -3818,7 +3818,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4110,7 +4110,9 @@
       <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -4125,7 +4127,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4609,7 +4611,7 @@
       </c>
       <c r="D28" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="35">
         <f t="shared" si="3"/>
@@ -4670,7 +4672,7 @@
       </c>
       <c r="D29" s="35">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="35">
         <f t="shared" si="4"/>
@@ -6154,270 +6156,270 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67">
+      <c r="A2" s="61">
         <v>1</v>
       </c>
-      <c r="B2" s="68">
+      <c r="B2" s="63">
         <v>100027940</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
       <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57">
+      <c r="A4" s="53">
         <v>2</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="55">
         <v>100033542</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="63" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="64"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
+      <c r="A6" s="67">
         <v>3</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="68">
         <v>100033986</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="51" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="57">
+      <c r="A8" s="53">
         <v>4</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="55">
         <v>100033497</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="63" t="s">
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="64"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53">
+      <c r="A10" s="67">
         <v>5</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="68">
         <v>100038056</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="51" t="s">
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="50"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57">
+      <c r="A12" s="53">
         <v>6</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="55">
         <v>100031506</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="63" t="s">
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="64"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
+      <c r="A14" s="67">
         <v>7</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="68">
         <v>100011564</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="51" t="s">
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57">
+      <c r="A16" s="53">
         <v>8</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="55">
         <v>100008136</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="63" t="s">
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="64"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53">
+      <c r="A18" s="67">
         <v>9</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="68">
         <v>100038061</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="51" t="s">
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
@@ -6441,6 +6443,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A4:A5"/>
@@ -6457,62 +6515,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6520,17 +6522,842 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId3" name="Control 1">
+        <control shapeId="1060" r:id="rId3" name="Control 36">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId3" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId5" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId5" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId7" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId7" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId8" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
                 <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId8" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId10" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId10" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId11" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId11" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId12" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId12" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId13" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId13" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId14" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId14" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId15" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId15" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId16" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId16" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId17" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId17" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId18" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId18" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId19" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId19" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId20" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId20" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId21" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId21" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId22" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId22" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId23" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId23" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId24" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId24" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId25" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId25" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId26" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId26" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId27" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId27" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId28" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId28" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId29" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId29" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId30" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId30" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId31" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId31" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId32" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId32" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId33" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId33" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId34" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId34" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId35" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId35" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId36" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId36" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId37" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId37" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId38" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId38" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId39" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
@@ -6540,12 +7367,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId3" name="Control 1"/>
+        <control shapeId="1027" r:id="rId39" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId5" name="Control 2">
+        <control shapeId="1026" r:id="rId40" name="Control 2">
           <controlPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
@@ -6565,22 +7392,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId5" name="Control 2"/>
+        <control shapeId="1026" r:id="rId40" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="1025" r:id="rId41" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
@@ -6590,832 +7417,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId7" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId10" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId10" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId11" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId11" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId12" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId12" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId13" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId13" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId14" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId14" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId15" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId15" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId16" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId16" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId17" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId17" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId18" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId18" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId19" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId19" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId20" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId20" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId21" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId21" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId22" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId22" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId23" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId23" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId24" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId24" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId25" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId25" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId26" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId26" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId27" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId27" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId28" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId28" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId29" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId29" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId30" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId30" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId31" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId31" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId32" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId32" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId33" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId33" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId34" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId34" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId35" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId35" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId36" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId36" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId37" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId37" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId38" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId38" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId39" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId39" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId40" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId40" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId41" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId41" name="Control 36"/>
+        <control shapeId="1025" r:id="rId41" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>OA2</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -775,16 +778,28 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,28 +826,16 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -887,147 +890,147 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,9 +1046,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1090,9 +1093,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1137,9 +1140,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1186,7 +1189,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1231,9 +1234,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1278,9 +1281,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1325,9 +1328,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1374,7 +1377,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1419,9 +1422,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1466,9 +1469,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1513,9 +1516,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1562,7 +1565,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1607,9 +1610,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1654,9 +1657,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1701,9 +1704,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1750,7 +1753,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1795,9 +1798,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1842,9 +1845,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1889,9 +1892,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1938,7 +1941,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1983,9 +1986,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2030,9 +2033,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2077,9 +2080,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2126,7 +2129,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2171,9 +2174,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2218,9 +2221,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2265,9 +2268,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2314,7 +2317,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2359,9 +2362,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2406,9 +2409,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2453,9 +2456,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2502,7 +2505,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2547,9 +2550,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2594,9 +2597,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2641,9 +2644,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2690,7 +2693,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3094,14 +3097,14 @@
       </c>
       <c r="H2" s="46">
         <f>ASISTENCIA!Q6</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="46">
         <v>0</v>
       </c>
       <c r="J2" s="47">
         <f>ROUNDDOWN( D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3129,7 +3132,7 @@
       </c>
       <c r="H3" s="46">
         <f>ASISTENCIA!Q7</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="46">
         <v>0</v>
@@ -3164,14 +3167,14 @@
       </c>
       <c r="H4" s="46">
         <f>ASISTENCIA!Q8</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="46">
         <v>0</v>
       </c>
       <c r="J4" s="47">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3199,14 +3202,14 @@
       </c>
       <c r="H5" s="46">
         <f>ASISTENCIA!Q9</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" s="46">
         <v>0</v>
       </c>
       <c r="J5" s="47">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3270,14 +3273,14 @@
       </c>
       <c r="H7" s="46">
         <f>ASISTENCIA!Q11</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" s="46">
         <v>0</v>
       </c>
       <c r="J7" s="47">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="48"/>
     </row>
@@ -3304,14 +3307,14 @@
       </c>
       <c r="H8" s="46">
         <f>ASISTENCIA!Q12</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" s="46">
         <v>0</v>
       </c>
       <c r="J8" s="47">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="48"/>
     </row>
@@ -3338,7 +3341,7 @@
       </c>
       <c r="H9" s="46">
         <f>ASISTENCIA!Q13</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" s="46">
         <v>0</v>
@@ -3406,14 +3409,14 @@
       </c>
       <c r="H11" s="46">
         <f>ASISTENCIA!Q15</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" s="46">
         <v>0</v>
       </c>
       <c r="J11" s="47">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="48"/>
     </row>
@@ -3787,7 +3790,7 @@
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>7.8095238095238093</v>
+        <v>8.1904761904761898</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" si="1"/>
@@ -3795,7 +3798,7 @@
       </c>
       <c r="J23" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.2857142857142858</v>
       </c>
     </row>
   </sheetData>
@@ -3815,18 +3818,18 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="16" width="9.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3995,7 +3998,9 @@
       <c r="D6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -4009,7 +4014,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:O6,"") - COUNTIF(D6:O6,"F") - COUNTIF(D6:O6,"T")/2,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4022,8 +4027,12 @@
       <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -4037,7 +4046,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="2">
         <f t="shared" ref="Q7:Q26" si="1">ROUNDUP( 20  - COUNTIF(C7:O7,"") - COUNTIF(D7:O7,"F") - COUNTIF(D7:O7,"T")/2,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4053,7 +4062,9 @@
       <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4067,7 +4078,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4083,7 +4094,9 @@
       <c r="D9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -4097,7 +4110,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4113,7 +4126,9 @@
       <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -4143,7 +4158,9 @@
       <c r="D11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -4157,7 +4174,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4173,7 +4190,9 @@
       <c r="D12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -4187,7 +4206,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4200,8 +4219,12 @@
       <c r="C13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -4215,7 +4238,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4228,7 +4251,9 @@
       <c r="C14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -4259,7 +4284,9 @@
       <c r="D15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -4273,7 +4300,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4554,7 +4581,7 @@
       </c>
       <c r="E27" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
@@ -4615,7 +4642,7 @@
       </c>
       <c r="E28" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
@@ -4676,7 +4703,7 @@
       </c>
       <c r="E29" s="35">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="4"/>
@@ -6156,270 +6183,270 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="67">
         <v>1</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="68">
         <v>100027940</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="51" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
       <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
+      <c r="A4" s="57">
         <v>2</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="59">
         <v>100033542</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="59" t="s">
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="63" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="60"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67">
+      <c r="A6" s="53">
         <v>3</v>
       </c>
-      <c r="B6" s="68">
+      <c r="B6" s="55">
         <v>100033986</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+      <c r="A8" s="57">
         <v>4</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="59">
         <v>100033497</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="59" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="63" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="60"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
+      <c r="A10" s="53">
         <v>5</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="55">
         <v>100038056</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="50"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53">
+      <c r="A12" s="57">
         <v>6</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="59">
         <v>100031506</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="59" t="s">
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="63" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="60"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="64"/>
     </row>
     <row r="14" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
+      <c r="A14" s="53">
         <v>7</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="55">
         <v>100011564</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
+      <c r="A16" s="57">
         <v>8</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="59">
         <v>100008136</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="59" t="s">
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="63" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="60"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
+      <c r="A18" s="53">
         <v>9</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="55">
         <v>100038061</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66" t="s">
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
@@ -6443,14 +6470,54 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="A16:A17"/>
@@ -6467,54 +6534,14 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6522,8 +6549,883 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId3" name="Control 36">
+        <control shapeId="1025" r:id="rId3" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId3" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId5" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId7" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId8" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId8" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId10" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId10" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId11" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId11" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId12" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId12" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId13" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId13" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId14" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId14" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId15" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId15" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId16" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId16" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId17" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId17" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId18" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId18" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId19" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId19" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId20" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId20" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId21" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId21" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId22" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId22" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId23" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId23" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId24" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId24" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId25" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId25" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId26" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId26" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId27" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId27" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId28" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId28" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId29" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId29" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId30" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId30" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId31" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId31" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId32" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId32" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId33" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId33" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId34" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId34" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId35" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId35" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId36" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId36" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId37" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId37" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId38" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId38" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId39" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId39" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId40" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId40" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId41" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -6535,889 +7437,14 @@
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId3" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId5" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId5" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId7" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId7" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId8" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId8" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId10" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId10" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId11" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId11" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId12" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId12" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId13" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId13" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId14" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId14" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId15" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId15" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId16" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId16" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId17" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId17" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId18" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId18" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId19" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId19" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId20" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId20" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId21" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId21" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId22" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId22" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId23" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId23" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId24" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId24" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId25" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId25" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId26" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId26" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId27" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId27" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId28" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId28" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId29" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId29" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId30" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId30" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId31" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId31" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId32" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId32" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId33" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId33" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId34" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId34" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId35" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId35" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId36" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId36" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId37" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId37" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId38" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId38" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId39" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId39" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId40" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId40" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId41" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId41" name="Control 1"/>
+        <control shapeId="1060" r:id="rId41" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -778,28 +778,16 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,16 +814,28 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -902,11 +902,11 @@
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,11 +918,11 @@
 </file>
 
 <file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,11 +938,11 @@
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -954,11 +954,11 @@
 </file>
 
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,11 +970,11 @@
 </file>
 
 <file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -990,11 +990,11 @@
 </file>
 
 <file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1006,15 +1006,15 @@
 </file>
 
 <file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1026,11 +1026,11 @@
 </file>
 
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3019,7 +3019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="H4" s="46">
         <f>ASISTENCIA!Q8</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" s="46">
         <v>0</v>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="H5" s="46">
         <f>ASISTENCIA!Q9</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" s="46">
         <v>0</v>
@@ -3237,14 +3237,14 @@
       </c>
       <c r="H6" s="46">
         <f>ASISTENCIA!Q10</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="46">
         <v>0</v>
       </c>
       <c r="J6" s="47">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="48" t="s">
         <v>68</v>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="H7" s="46">
         <f>ASISTENCIA!Q11</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" s="46">
         <v>0</v>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="H8" s="46">
         <f>ASISTENCIA!Q12</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" s="46">
         <v>0</v>
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H9" s="46">
         <f>ASISTENCIA!Q13</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="46">
         <v>0</v>
       </c>
       <c r="J9" s="47">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="48"/>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="H11" s="46">
         <f>ASISTENCIA!Q15</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" s="46">
         <v>0</v>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>8.1904761904761898</v>
+        <v>8.5238095238095237</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" si="1"/>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="J23" s="13">
         <f t="shared" si="1"/>
-        <v>1.2857142857142858</v>
+        <v>1.3809523809523809</v>
       </c>
     </row>
   </sheetData>
@@ -3817,19 +3817,19 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="16" width="9.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4001,7 +4001,9 @@
       <c r="E6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -4033,7 +4035,9 @@
       <c r="E7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4065,7 +4069,9 @@
       <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -4078,7 +4084,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4097,7 +4103,9 @@
       <c r="E9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -4110,7 +4118,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4129,7 +4137,9 @@
       <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -4142,7 +4152,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4161,7 +4171,9 @@
       <c r="E11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -4174,7 +4186,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4193,7 +4205,9 @@
       <c r="E12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -4206,7 +4220,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4225,7 +4239,9 @@
       <c r="E13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -4238,7 +4254,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4254,8 +4270,12 @@
       <c r="D14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -4287,7 +4307,9 @@
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -4300,7 +4322,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4585,7 +4607,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="2"/>
@@ -4646,7 +4668,7 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="3"/>
@@ -4707,7 +4729,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="4"/>
@@ -6183,270 +6205,270 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67">
+      <c r="A2" s="61">
         <v>1</v>
       </c>
-      <c r="B2" s="68">
+      <c r="B2" s="63">
         <v>100027940</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
       <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57">
+      <c r="A4" s="53">
         <v>2</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="55">
         <v>100033542</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="63" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="64"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
+      <c r="A6" s="67">
         <v>3</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="68">
         <v>100033986</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="51" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="57">
+      <c r="A8" s="53">
         <v>4</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="55">
         <v>100033497</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="63" t="s">
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="64"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53">
+      <c r="A10" s="67">
         <v>5</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="68">
         <v>100038056</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="51" t="s">
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="50"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57">
+      <c r="A12" s="53">
         <v>6</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="55">
         <v>100031506</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="63" t="s">
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="64"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
+      <c r="A14" s="67">
         <v>7</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="68">
         <v>100011564</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="51" t="s">
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57">
+      <c r="A16" s="53">
         <v>8</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="55">
         <v>100008136</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="63" t="s">
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="64"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53">
+      <c r="A18" s="67">
         <v>9</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="68">
         <v>100038061</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="51" t="s">
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
@@ -6470,6 +6492,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A4:A5"/>
@@ -6486,62 +6564,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6549,17 +6571,842 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId3" name="Control 1">
+        <control shapeId="1060" r:id="rId3" name="Control 36">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId3" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId5" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId5" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId7" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId7" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId8" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
                 <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId8" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId10" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId10" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId11" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId11" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId12" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId12" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId13" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId13" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId14" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId14" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId15" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId15" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId16" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId16" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId17" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId17" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId18" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId18" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId19" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId19" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId20" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId20" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId21" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId21" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId22" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId22" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId23" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId23" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId24" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId24" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId25" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId25" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId26" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId26" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId27" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId27" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId28" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId28" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId29" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId29" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId30" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId30" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId31" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId31" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId32" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId32" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId33" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId33" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId34" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId34" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId35" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId35" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId36" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId36" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId37" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId37" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId38" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId38" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId39" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
@@ -6569,12 +7416,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId3" name="Control 1"/>
+        <control shapeId="1027" r:id="rId39" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId5" name="Control 2">
+        <control shapeId="1026" r:id="rId40" name="Control 2">
           <controlPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
@@ -6594,22 +7441,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId5" name="Control 2"/>
+        <control shapeId="1026" r:id="rId40" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="1025" r:id="rId41" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
@@ -6619,832 +7466,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId7" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId10" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId10" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId11" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId11" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId12" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId12" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId13" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId13" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId14" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId14" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId15" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId15" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId16" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId16" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId17" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId17" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId18" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId18" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId19" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId19" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId20" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId20" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId21" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId21" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId22" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId22" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId23" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId23" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId24" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId24" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId25" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId25" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId26" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId26" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId27" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId27" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId28" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId28" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId29" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId29" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId30" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId30" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId31" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId31" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId32" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId32" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId33" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId33" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId34" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId34" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId35" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId35" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId36" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId36" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId37" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId37" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId38" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId38" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId39" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId39" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId40" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId40" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId41" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId41" name="Control 36"/>
+        <control shapeId="1025" r:id="rId41" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -1046,9 +1046,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1093,9 +1093,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1140,9 +1140,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1187,9 +1187,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1234,9 +1234,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1281,9 +1281,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1328,9 +1328,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1375,9 +1375,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1422,9 +1422,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1469,9 +1469,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1516,9 +1516,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1563,9 +1563,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1610,9 +1610,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1657,9 +1657,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1704,9 +1704,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1751,9 +1751,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1798,9 +1798,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1845,9 +1845,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1892,9 +1892,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1939,9 +1939,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1986,9 +1986,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2033,9 +2033,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2080,9 +2080,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2127,9 +2127,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2174,9 +2174,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2221,9 +2221,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2268,9 +2268,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2315,9 +2315,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2362,9 +2362,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2409,9 +2409,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2456,9 +2456,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2503,9 +2503,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2550,9 +2550,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2597,9 +2597,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2644,9 +2644,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2691,9 +2691,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3019,28 +3019,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="L7" s="48"/>
     </row>
-    <row r="8" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>7</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>8</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="L9" s="48"/>
     </row>
-    <row r="10" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6">
         <v>9</v>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="L10" s="48"/>
     </row>
-    <row r="11" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6">
         <v>10</v>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="L11" s="48"/>
     </row>
-    <row r="12" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6">
         <v>11</v>
@@ -3451,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -3544,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6">
         <v>18</v>
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6">
         <v>19</v>
@@ -3705,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D23" s="13">
         <f t="shared" ref="D23:J23" si="1">AVERAGE(D2:D22)</f>
         <v>0</v>
@@ -3817,23 +3817,23 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="5" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="16" width="9.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="6" width="9.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="16" width="9.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -3842,12 +3842,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>36</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>18</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>19</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>20</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>21</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="33" t="s">
         <v>11</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="33" t="s">
         <v>10</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="33" t="s">
         <v>12</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="33" t="s">
         <v>65</v>
       </c>
@@ -4826,16 +4826,16 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -5354,17 +5354,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -5873,15 +5873,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5963,14 +5963,14 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.7109375" customWidth="1"/>
+    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
@@ -5996,7 +5996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -6038,7 +6038,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -6051,7 +6051,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -6064,7 +6064,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -6077,7 +6077,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -6090,7 +6090,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -6103,7 +6103,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -6116,7 +6116,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -6129,7 +6129,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -6142,7 +6142,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -6155,7 +6155,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -6168,7 +6168,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -6196,15 +6196,15 @@
       <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61">
         <v>1</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="62"/>
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
@@ -6234,7 +6234,7 @@
       <c r="G3" s="50"/>
       <c r="H3" s="52"/>
     </row>
-    <row r="4" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53">
         <v>2</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -6264,7 +6264,7 @@
       <c r="G5" s="58"/>
       <c r="H5" s="60"/>
     </row>
-    <row r="6" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="67">
         <v>3</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="62"/>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
@@ -6294,7 +6294,7 @@
       <c r="G7" s="50"/>
       <c r="H7" s="52"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="53">
         <v>4</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -6324,7 +6324,7 @@
       <c r="G9" s="58"/>
       <c r="H9" s="60"/>
     </row>
-    <row r="10" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67">
         <v>5</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="62"/>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
@@ -6354,7 +6354,7 @@
       <c r="G11" s="50"/>
       <c r="H11" s="52"/>
     </row>
-    <row r="12" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="53">
         <v>6</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
@@ -6384,7 +6384,7 @@
       <c r="G13" s="58"/>
       <c r="H13" s="60"/>
     </row>
-    <row r="14" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="67">
         <v>7</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="62"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
@@ -6414,7 +6414,7 @@
       <c r="G15" s="50"/>
       <c r="H15" s="52"/>
     </row>
-    <row r="16" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53">
         <v>8</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="54"/>
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
@@ -6444,7 +6444,7 @@
       <c r="G17" s="58"/>
       <c r="H17" s="60"/>
     </row>
-    <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="67">
         <v>9</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="62"/>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
@@ -6474,7 +6474,7 @@
       <c r="G19" s="50"/>
       <c r="H19" s="52"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42">
         <v>10</v>
       </c>
@@ -6582,9 +6582,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>251460</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6607,9 +6607,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6632,9 +6632,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6657,9 +6657,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6682,9 +6682,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>251460</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6707,9 +6707,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6732,9 +6732,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6757,9 +6757,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6782,9 +6782,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>251460</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6807,9 +6807,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6832,9 +6832,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6857,9 +6857,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6882,9 +6882,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>251460</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6907,9 +6907,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6932,9 +6932,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6957,9 +6957,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6982,9 +6982,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>251460</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7007,9 +7007,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7032,9 +7032,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7057,9 +7057,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7082,9 +7082,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>251460</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7107,9 +7107,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7132,9 +7132,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7157,9 +7157,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7182,9 +7182,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>251460</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7207,9 +7207,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7232,9 +7232,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7257,9 +7257,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7282,9 +7282,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>251460</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7307,9 +7307,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7332,9 +7332,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7357,9 +7357,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7382,9 +7382,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>251460</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7407,9 +7407,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7432,9 +7432,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7457,9 +7457,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7481,57 +7481,57 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>88</v>
       </c>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -778,16 +778,28 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,28 +826,16 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -902,11 +902,11 @@
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,11 +918,11 @@
 </file>
 
 <file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,11 +938,11 @@
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -954,11 +954,11 @@
 </file>
 
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,11 +970,11 @@
 </file>
 
 <file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -990,11 +990,11 @@
 </file>
 
 <file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1006,15 +1006,15 @@
 </file>
 
 <file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1026,11 +1026,11 @@
 </file>
 
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1046,9 +1046,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1093,9 +1093,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1140,9 +1140,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1187,9 +1187,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1234,9 +1234,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1281,9 +1281,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1328,9 +1328,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1375,9 +1375,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1422,9 +1422,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1469,9 +1469,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1516,9 +1516,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1563,9 +1563,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1610,9 +1610,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1657,9 +1657,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1704,9 +1704,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1751,9 +1751,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1798,9 +1798,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1845,9 +1845,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1892,9 +1892,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1939,9 +1939,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1986,9 +1986,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2033,9 +2033,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2080,9 +2080,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2127,9 +2127,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2174,9 +2174,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2221,9 +2221,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2268,9 +2268,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2315,9 +2315,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2362,9 +2362,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2409,9 +2409,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2456,9 +2456,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2503,9 +2503,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2550,9 +2550,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2597,9 +2597,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2644,9 +2644,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2691,9 +2691,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3019,28 +3019,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3072,7 +3071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3107,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3142,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3177,7 +3176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -3284,7 +3283,7 @@
       </c>
       <c r="L7" s="48"/>
     </row>
-    <row r="8" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>7</v>
@@ -3318,7 +3317,7 @@
       </c>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>8</v>
@@ -3352,7 +3351,7 @@
       </c>
       <c r="L9" s="48"/>
     </row>
-    <row r="10" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6">
         <v>9</v>
@@ -3386,7 +3385,7 @@
       </c>
       <c r="L10" s="48"/>
     </row>
-    <row r="11" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6">
         <v>10</v>
@@ -3420,7 +3419,7 @@
       </c>
       <c r="L11" s="48"/>
     </row>
-    <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6">
         <v>11</v>
@@ -3451,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -3482,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -3513,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -3544,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -3643,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6">
         <v>18</v>
@@ -3674,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6">
         <v>19</v>
@@ -3705,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="13">
         <f t="shared" ref="D23:J23" si="1">AVERAGE(D2:D22)</f>
         <v>0</v>
@@ -3817,23 +3816,23 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="6" width="9.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="16" width="9.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="6" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -3842,12 +3841,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>36</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
@@ -3985,7 +3984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -4019,7 +4018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -4189,7 +4188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -4257,7 +4256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -4291,7 +4290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -4349,7 +4348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -4373,7 +4372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -4397,7 +4396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -4445,7 +4444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>18</v>
       </c>
@@ -4517,7 +4516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>19</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>20</v>
       </c>
@@ -4565,7 +4564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>21</v>
       </c>
@@ -4589,7 +4588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>11</v>
       </c>
@@ -4650,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
         <v>10</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="33" t="s">
         <v>12</v>
       </c>
@@ -4772,7 +4771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="33" t="s">
         <v>65</v>
       </c>
@@ -4826,16 +4825,16 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -4930,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -4978,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -5026,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -5050,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -5074,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -5164,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -5186,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -5252,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -5354,17 +5353,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -5419,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -5549,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -5575,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -5841,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -5873,15 +5872,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5904,7 +5903,7 @@
       </c>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5913,7 +5912,7 @@
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5922,7 +5921,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5931,7 +5930,7 @@
       </c>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5940,7 +5939,7 @@
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5963,14 +5962,14 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.6640625" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
@@ -5996,7 +5995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -6038,7 +6037,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -6051,7 +6050,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -6064,7 +6063,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -6077,7 +6076,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -6090,7 +6089,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -6103,7 +6102,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -6116,7 +6115,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -6129,7 +6128,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -6142,7 +6141,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -6155,7 +6154,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -6168,7 +6167,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -6196,285 +6195,285 @@
       <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67">
         <v>1</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="68">
         <v>100027940</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="51" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
       <c r="H3" s="52"/>
     </row>
-    <row r="4" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53">
+    <row r="4" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57">
         <v>2</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="59">
         <v>100033542</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="59" t="s">
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="60"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
         <v>3</v>
       </c>
-      <c r="B6" s="68">
+      <c r="B6" s="55">
         <v>100033986</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="52"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="53">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="57">
         <v>4</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="59">
         <v>100033497</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="59" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="64"/>
+    </row>
+    <row r="10" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
         <v>5</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="55">
         <v>100038056</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="50"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="52"/>
     </row>
-    <row r="12" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53">
+    <row r="12" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
         <v>6</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="59">
         <v>100031506</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="59" t="s">
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="60"/>
-    </row>
-    <row r="14" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="64"/>
+    </row>
+    <row r="14" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53">
         <v>7</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="55">
         <v>100011564</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="52"/>
     </row>
-    <row r="16" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53">
+    <row r="16" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
         <v>8</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="59">
         <v>100008136</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="59" t="s">
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="67">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="64"/>
+    </row>
+    <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53">
         <v>9</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="55">
         <v>100038061</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66" t="s">
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="62"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="54"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="52"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42">
         <v>10</v>
       </c>
@@ -6492,14 +6491,54 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="A16:A17"/>
@@ -6516,54 +6555,14 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6571,32 +6570,857 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId3" name="Control 36">
+        <control shapeId="1025" r:id="rId3" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId3" name="Control 36"/>
+        <control shapeId="1025" r:id="rId3" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId5" name="Control 35">
+        <control shapeId="1026" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId5" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId7" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId8" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId8" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId10" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId10" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId11" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId11" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId12" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId12" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId13" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId13" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId14" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId14" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId15" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId15" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId16" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId16" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId17" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId17" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId18" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId18" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId19" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId19" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId20" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId20" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId21" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId21" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId22" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId22" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId23" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId23" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId24" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId24" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId25" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId25" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId26" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId26" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId27" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId27" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId28" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId28" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId29" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId29" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId30" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId30" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId31" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId31" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId32" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId32" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId33" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId33" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId34" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId34" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId35" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId35" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId36" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId36" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId37" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId37" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId38" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId38" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId39" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId39" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId40" name="Control 35">
           <controlPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
@@ -6607,866 +7431,41 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
+                <xdr:rowOff>238125</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId5" name="Control 35"/>
+        <control shapeId="1059" r:id="rId40" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId7" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="1060" r:id="rId41" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId7" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId8" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId8" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId10" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId10" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId11" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId11" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId12" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId12" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId13" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId13" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId14" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId14" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId15" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId15" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId16" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId16" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId17" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId17" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId18" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId18" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId19" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId19" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId20" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId20" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId21" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId21" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId22" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId22" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId23" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId23" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId24" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId24" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId25" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId25" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId26" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId26" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId27" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId27" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId28" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId28" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId29" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId29" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId30" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId30" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId31" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId31" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId32" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId32" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId33" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId33" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId34" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId34" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId35" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId35" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId36" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId36" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId37" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId37" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId38" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId38" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId39" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId39" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId40" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId40" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId41" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>205740</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId41" name="Control 1"/>
+        <control shapeId="1060" r:id="rId41" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7481,57 +7480,57 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>88</v>
       </c>
